--- a/HyPAT/datafiles/persistent_permeation_input_variables.xlsx
+++ b/HyPAT/datafiles/persistent_permeation_input_variables.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="6" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10875" yWindow="-11640" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Notes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Numbers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="MiscInfo" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="GasT" sheetId="4" state="visible" r:id="rId4"/>
@@ -15,7 +15,7 @@
     <sheet name="SecP" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -487,12 +487,13 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="11.125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,6 +537,11 @@
           <t>Starting Row</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Rows in Footer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -576,6 +582,9 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -599,11 +608,6 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(experiment needs to start when valve goes from 1 to 0, then multiply by -1 and add 1) </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -672,7 +676,11 @@
       <c r="A7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>This sheet isn't loaded by HyPAT and is here for the user's convenience</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,6 +786,11 @@
           <t>Starting Row</t>
         </is>
       </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Rows in Footer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -793,6 +806,9 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -802,6 +818,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -811,6 +828,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -818,6 +836,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -825,6 +844,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
